--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H2">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N2">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q2">
-        <v>41.90488430307308</v>
+        <v>70.497798229604</v>
       </c>
       <c r="R2">
-        <v>41.90488430307308</v>
+        <v>634.480184066436</v>
       </c>
       <c r="S2">
-        <v>3.217938721448083E-05</v>
+        <v>4.696843901575828E-05</v>
       </c>
       <c r="T2">
-        <v>3.217938721448083E-05</v>
+        <v>4.696843901575828E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H3">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N3">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q3">
-        <v>297.188368107356</v>
+        <v>499.6192800486759</v>
       </c>
       <c r="R3">
-        <v>297.188368107356</v>
+        <v>4496.573520438084</v>
       </c>
       <c r="S3">
-        <v>0.0002282153914040267</v>
+        <v>0.0003328662493775461</v>
       </c>
       <c r="T3">
-        <v>0.0002282153914040267</v>
+        <v>0.0003328662493775461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H4">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N4">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q4">
-        <v>475.1188103669056</v>
+        <v>803.72714835462</v>
       </c>
       <c r="R4">
-        <v>475.1188103669056</v>
+        <v>7233.54433519158</v>
       </c>
       <c r="S4">
-        <v>0.0003648508384154859</v>
+        <v>0.000535475014834592</v>
       </c>
       <c r="T4">
-        <v>0.0003648508384154859</v>
+        <v>0.000535475014834592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H5">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N5">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q5">
-        <v>382.1307285546553</v>
+        <v>712.2997057739241</v>
       </c>
       <c r="R5">
-        <v>382.1307285546553</v>
+        <v>6410.697351965316</v>
       </c>
       <c r="S5">
-        <v>0.0002934439000422236</v>
+        <v>0.0004745624137455142</v>
       </c>
       <c r="T5">
-        <v>0.0002934439000422236</v>
+        <v>0.0004745624137455142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H6">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N6">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q6">
-        <v>32.06535703413095</v>
+        <v>56.206512923788</v>
       </c>
       <c r="R6">
-        <v>32.06535703413095</v>
+        <v>505.858616314092</v>
       </c>
       <c r="S6">
-        <v>2.462346710491232E-05</v>
+        <v>3.74470159472411E-05</v>
       </c>
       <c r="T6">
-        <v>2.462346710491232E-05</v>
+        <v>3.74470159472411E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H7">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N7">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q7">
-        <v>229.6671819979804</v>
+        <v>236.2887423434961</v>
       </c>
       <c r="R7">
-        <v>229.6671819979804</v>
+        <v>2126.598681091465</v>
       </c>
       <c r="S7">
-        <v>0.0001763648630197905</v>
+        <v>0.0001574249645176906</v>
       </c>
       <c r="T7">
-        <v>0.0001763648630197905</v>
+        <v>0.0001574249645176905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H8">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N8">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q8">
-        <v>1628.793782895363</v>
+        <v>1674.582955750954</v>
       </c>
       <c r="R8">
-        <v>1628.793782895363</v>
+        <v>15071.24660175858</v>
       </c>
       <c r="S8">
-        <v>0.00125077509946699</v>
+        <v>0.001115673814065139</v>
       </c>
       <c r="T8">
-        <v>0.00125077509946699</v>
+        <v>0.001115673814065139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H9">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N9">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q9">
-        <v>2603.973262448498</v>
+        <v>2693.866785080509</v>
       </c>
       <c r="R9">
-        <v>2603.973262448498</v>
+        <v>24244.80106572458</v>
       </c>
       <c r="S9">
-        <v>0.001999630002613803</v>
+        <v>0.001794761268990931</v>
       </c>
       <c r="T9">
-        <v>0.001999630002613803</v>
+        <v>0.001794761268990931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H10">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N10">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q10">
-        <v>2094.335518199887</v>
+        <v>2387.427776124297</v>
       </c>
       <c r="R10">
-        <v>2094.335518199887</v>
+        <v>21486.84998511866</v>
       </c>
       <c r="S10">
-        <v>0.001608271558746487</v>
+        <v>0.001590599404852524</v>
       </c>
       <c r="T10">
-        <v>0.001608271558746487</v>
+        <v>0.001590599404852524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H11">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N11">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q11">
-        <v>175.7399003067504</v>
+        <v>188.3883835211506</v>
       </c>
       <c r="R11">
-        <v>175.7399003067504</v>
+        <v>1695.495451690355</v>
       </c>
       <c r="S11">
-        <v>0.0001349532970931138</v>
+        <v>0.0001255118390204532</v>
       </c>
       <c r="T11">
-        <v>0.0001349532970931138</v>
+        <v>0.0001255118390204531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H12">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N12">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q12">
-        <v>34980.07106793246</v>
+        <v>35112.55968627047</v>
       </c>
       <c r="R12">
-        <v>34980.07106793246</v>
+        <v>316013.0371764342</v>
       </c>
       <c r="S12">
-        <v>0.02686171959201683</v>
+        <v>0.02339338475423804</v>
       </c>
       <c r="T12">
-        <v>0.02686171959201683</v>
+        <v>0.02339338475423803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H13">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N13">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q13">
-        <v>248077.7696884328</v>
+        <v>248843.3998177528</v>
       </c>
       <c r="R13">
-        <v>248077.7696884328</v>
+        <v>2239590.598359776</v>
       </c>
       <c r="S13">
-        <v>0.1905026285807797</v>
+        <v>0.165789377006473</v>
       </c>
       <c r="T13">
-        <v>0.1905026285807797</v>
+        <v>0.1657893770064729</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H14">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N14">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q14">
-        <v>396605.0742950527</v>
+        <v>400309.2036458353</v>
       </c>
       <c r="R14">
-        <v>396605.0742950527</v>
+        <v>3602782.832812518</v>
       </c>
       <c r="S14">
-        <v>0.3045589665554215</v>
+        <v>0.2667019239047771</v>
       </c>
       <c r="T14">
-        <v>0.3045589665554215</v>
+        <v>0.2667019239047771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H15">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N15">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q15">
-        <v>318983.3420230298</v>
+        <v>354772.2987325458</v>
       </c>
       <c r="R15">
-        <v>318983.3420230298</v>
+        <v>3192950.688592911</v>
       </c>
       <c r="S15">
-        <v>0.2449520777504091</v>
+        <v>0.2363634254679836</v>
       </c>
       <c r="T15">
-        <v>0.2449520777504091</v>
+        <v>0.2363634254679836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H16">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N16">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O16">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P16">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q16">
-        <v>26766.5329836091</v>
+        <v>27994.55570748432</v>
       </c>
       <c r="R16">
-        <v>26766.5329836091</v>
+        <v>251951.0013673589</v>
       </c>
       <c r="S16">
-        <v>0.0205544208889646</v>
+        <v>0.0186510872047076</v>
       </c>
       <c r="T16">
-        <v>0.0205544208889646</v>
+        <v>0.0186510872047076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H17">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N17">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O17">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P17">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q17">
-        <v>8597.125050999844</v>
+        <v>13380.94213679009</v>
       </c>
       <c r="R17">
-        <v>8597.125050999844</v>
+        <v>120428.4792311109</v>
       </c>
       <c r="S17">
-        <v>0.00660186087012175</v>
+        <v>0.008914916217359233</v>
       </c>
       <c r="T17">
-        <v>0.00660186087012175</v>
+        <v>0.008914916217359233</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H18">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N18">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P18">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q18">
-        <v>60970.59106148508</v>
+        <v>94830.99961480331</v>
       </c>
       <c r="R18">
-        <v>60970.59106148508</v>
+        <v>853478.9965332299</v>
       </c>
       <c r="S18">
-        <v>0.04682022850303897</v>
+        <v>0.06318018624787207</v>
       </c>
       <c r="T18">
-        <v>0.04682022850303897</v>
+        <v>0.06318018624787207</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H19">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N19">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O19">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P19">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q19">
-        <v>97474.45661142233</v>
+        <v>152552.6574727026</v>
       </c>
       <c r="R19">
-        <v>97474.45661142233</v>
+        <v>1372973.917254323</v>
       </c>
       <c r="S19">
-        <v>0.07485209266142859</v>
+        <v>0.1016366520534771</v>
       </c>
       <c r="T19">
-        <v>0.07485209266142859</v>
+        <v>0.1016366520534771</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H20">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N20">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O20">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P20">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q20">
-        <v>78397.20151603255</v>
+        <v>135199.1322618506</v>
       </c>
       <c r="R20">
-        <v>78397.20151603255</v>
+        <v>1216792.190356655</v>
       </c>
       <c r="S20">
-        <v>0.06020238323223551</v>
+        <v>0.09007504288208514</v>
       </c>
       <c r="T20">
-        <v>0.06020238323223551</v>
+        <v>0.09007504288208514</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H21">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N21">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O21">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P21">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q21">
-        <v>6578.466658770017</v>
+        <v>10668.36292807973</v>
       </c>
       <c r="R21">
-        <v>6578.466658770017</v>
+        <v>96015.26635271755</v>
       </c>
       <c r="S21">
-        <v>0.005051702907925414</v>
+        <v>0.007107687986985572</v>
       </c>
       <c r="T21">
-        <v>0.005051702907925414</v>
+        <v>0.007107687986985572</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H22">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N22">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O22">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P22">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q22">
-        <v>574.3289265379208</v>
+        <v>591.4675538729439</v>
       </c>
       <c r="R22">
-        <v>574.3289265379208</v>
+        <v>5323.207984856495</v>
       </c>
       <c r="S22">
-        <v>0.0004410357700041551</v>
+        <v>0.0003940592249903113</v>
       </c>
       <c r="T22">
-        <v>0.0004410357700041551</v>
+        <v>0.0003940592249903113</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H23">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N23">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P23">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q23">
-        <v>4073.126063305637</v>
+        <v>4191.742165843406</v>
       </c>
       <c r="R23">
-        <v>4073.126063305637</v>
+        <v>37725.67949259065</v>
       </c>
       <c r="S23">
-        <v>0.003127814405035693</v>
+        <v>0.002792705463580326</v>
       </c>
       <c r="T23">
-        <v>0.003127814405035693</v>
+        <v>0.002792705463580326</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H24">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N24">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O24">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P24">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q24">
-        <v>6511.758256208518</v>
+        <v>6743.168472727692</v>
       </c>
       <c r="R24">
-        <v>6511.758256208518</v>
+        <v>60688.51625454923</v>
       </c>
       <c r="S24">
-        <v>0.005000476528180261</v>
+        <v>0.00449256721681978</v>
       </c>
       <c r="T24">
-        <v>0.005000476528180261</v>
+        <v>0.00449256721681978</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H25">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N25">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O25">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P25">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q25">
-        <v>5237.306695340384</v>
+        <v>5976.103866767344</v>
       </c>
       <c r="R25">
-        <v>5237.306695340384</v>
+        <v>53784.9348009061</v>
       </c>
       <c r="S25">
-        <v>0.004021806119101775</v>
+        <v>0.003981518246909311</v>
       </c>
       <c r="T25">
-        <v>0.004021806119101775</v>
+        <v>0.003981518246909311</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H26">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N26">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O26">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P26">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q26">
-        <v>439.4729251911348</v>
+        <v>471.5654892155295</v>
       </c>
       <c r="R26">
-        <v>439.4729251911348</v>
+        <v>4244.089402939765</v>
       </c>
       <c r="S26">
-        <v>0.0003374778302148659</v>
+        <v>0.0003141756973745452</v>
       </c>
       <c r="T26">
-        <v>0.0003374778302148659</v>
+        <v>0.0003141756973745452</v>
       </c>
     </row>
   </sheetData>
